--- a/data/f05.xlsx
+++ b/data/f05.xlsx
@@ -60,6 +60,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个道理是事物的</t>
     </r>
     <r>
@@ -137,6 +144,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>中国是一个大</t>
     </r>
     <r>
@@ -235,6 +249,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是</t>
     </r>
     <r>
@@ -312,6 +333,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他是我的好</t>
     </r>
     <r>
@@ -389,6 +417,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这座山很</t>
     </r>
     <r>
@@ -466,6 +501,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我买了</t>
     </r>
     <r>
@@ -543,6 +585,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>保</t>
     </r>
     <r>
@@ -609,6 +659,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -678,6 +736,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是</t>
     </r>
     <r>
@@ -755,6 +820,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个箱子太</t>
     </r>
     <r>
@@ -832,6 +904,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是一个</t>
     </r>
     <r>
@@ -909,6 +988,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -986,6 +1072,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他的</t>
     </r>
     <r>
@@ -1063,6 +1156,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -1140,6 +1240,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -1217,6 +1324,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>她这次比赛有很多有趣的</t>
     </r>
     <r>
@@ -1294,6 +1408,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -1374,6 +1495,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>何</t>
     </r>
     <r>
@@ -1440,6 +1569,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我们是一</t>
     </r>
     <r>
@@ -1517,6 +1653,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这次考试的</t>
     </r>
     <r>
@@ -1594,6 +1737,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我已经</t>
     </r>
     <r>
@@ -1667,11 +1817,11 @@
     <t>jiē</t>
   </si>
   <si>
-    <t>Đón nhận</t>
-  </si>
-  <si>
-    <r>
-      <t>他开心地</t>
+    <t>Tiếp đón</t>
+  </si>
+  <si>
+    <r>
+      <t>我们去机场</t>
     </r>
     <r>
       <rPr>
@@ -1692,7 +1842,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">过礼物。(Tā kāixīn de </t>
+      <t xml:space="preserve">他。 (Wǒmen qù jīchǎng </t>
     </r>
     <r>
       <rPr>
@@ -1713,28 +1863,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> guò lǐwù.) – Anh ấy vui vẻ </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>đón nhận</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> món quà.</t>
+      <t xml:space="preserve"> tā.) – Chúng tôi đi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>đón</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> anh ấy tại sân bay.</t>
     </r>
   </si>
   <si>
@@ -1748,6 +1898,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请</t>
     </r>
     <r>
@@ -1825,6 +1982,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我</t>
     </r>
     <r>
@@ -1902,6 +2066,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这道题很难</t>
     </r>
     <r>
@@ -1979,6 +2150,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -2066,6 +2245,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>公司</t>
     </r>
     <r>
@@ -2143,6 +2329,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我们来</t>
     </r>
     <r>
@@ -2220,6 +2413,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他</t>
     </r>
     <r>
@@ -2297,6 +2497,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是一辆</t>
     </r>
     <r>
@@ -2374,6 +2581,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个地方</t>
     </r>
     <r>
@@ -2451,6 +2665,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我没有</t>
     </r>
     <r>
@@ -2528,6 +2749,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这匹</t>
     </r>
     <r>
@@ -2605,6 +2833,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>请仔细</t>
     </r>
     <r>
@@ -2682,6 +2917,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是电影的第一</t>
     </r>
     <r>
@@ -2759,6 +3001,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他每天都会去运动</t>
     </r>
     <r>
@@ -2836,6 +3085,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>嗯</t>
     </r>
     <r>
@@ -2899,6 +3156,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>你的</t>
     </r>
     <r>
@@ -2976,6 +3240,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他被</t>
     </r>
     <r>
@@ -3053,6 +3324,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个消息很</t>
     </r>
     <r>
@@ -3130,6 +3408,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我喜欢</t>
     </r>
     <r>
@@ -3207,6 +3492,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>会议已经</t>
     </r>
     <r>
@@ -3284,6 +3576,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他们</t>
     </r>
     <r>
@@ -3361,6 +3660,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个方法对你很有</t>
     </r>
     <r>
@@ -3435,6 +3741,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他是我的好</t>
     </r>
     <r>
@@ -3512,6 +3825,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我看到一位</t>
     </r>
     <r>
@@ -3589,6 +3909,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>他是一位军</t>
     </r>
     <r>
@@ -3666,6 +3993,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我们去</t>
     </r>
     <r>
@@ -3743,6 +4077,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这是一</t>
     </r>
     <r>
@@ -3820,6 +4161,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>这个问题很</t>
     </r>
     <r>
@@ -4506,7 +4854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4516,9 +4864,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4845,8 +5190,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -5031,7 +5376,7 @@
       <c r="E9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5231,7 +5576,7 @@
       <c r="E19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5611,7 +5956,7 @@
       <c r="E38" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="5" t="s">
         <v>156</v>
       </c>
     </row>

--- a/data/f05.xlsx
+++ b/data/f05.xlsx
@@ -1565,18 +1565,11 @@
     <t>huǒ</t>
   </si>
   <si>
-    <t>Nhóm</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>我们是一</t>
+    <t>Cùng nhau</t>
+  </si>
+  <si>
+    <r>
+      <t>我们</t>
     </r>
     <r>
       <rPr>
@@ -1597,7 +1590,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>的。(Wǒmen shì yì</t>
+      <t xml:space="preserve">一起做这项工作。(Wǒmen </t>
     </r>
     <r>
       <rPr>
@@ -1618,28 +1611,28 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> de.) – Chúng tôi là một </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nhóm</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t xml:space="preserve"> yīqǐ zuò zhè xiàng gōngzuò.) – Chúng ta </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cùng nhau</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> làm công việc này.</t>
     </r>
   </si>
   <si>
@@ -1821,6 +1814,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>我们去机场</t>
     </r>
     <r>
@@ -5190,8 +5190,8 @@
   <sheetPr/>
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -5580,7 +5580,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" ht="28.8" spans="1:6">
       <c r="A20" s="3">
         <v>19</v>
       </c>
